--- a/project/excel/mixs_fresh_start.xlsx
+++ b/project/excel/mixs_fresh_start.xlsx
@@ -4,13 +4,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Biosample" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="QuantityValue" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Biosample1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="QuantityValue1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Checklists" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Package" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="QuantityValue" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Biosample1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Checklists1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Extension1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Package1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="QuantityValue1" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,6 +442,37 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Biosample_depth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>QuantityValue_has_raw_value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -453,6 +490,89 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Biosample_depth</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Biosample_depth</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Biosample_depth</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Biosample_depth</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>QuantityValue_has_raw_value</t>
         </is>
       </c>
@@ -462,50 +582,102 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Biosample_depth</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>QuantityValue_has_raw_value</t>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Biosample_depth</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Biosample_depth</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Biosample_depth</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Biosample_depth</t>
         </is>
       </c>
     </row>
